--- a/Output/VISWABRAHMIN.xlsx
+++ b/Output/VISWABRAHMIN.xlsx
@@ -2428,7 +2428,11 @@
       <c r="T2" t="n">
         <v>32</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -2666,7 +2670,11 @@
       <c r="T2" t="n">
         <v>31</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
